--- a/data/trans_camb/P1408-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1408-Estudios-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-2.223936131538317</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.757464193905661</v>
+        <v>0.7574641939056617</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-3.036203664551147</v>
@@ -664,7 +664,7 @@
         <v>-3.215925371476938</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.2322860175691804</v>
+        <v>0.232286017569179</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.102316889281326</v>
+        <v>-5.941427369821318</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.888687463624718</v>
+        <v>-6.636081255685419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.254541443927633</v>
+        <v>-2.539881766347661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.766859927205319</v>
+        <v>-3.767233783472894</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.791755079980199</v>
+        <v>-3.970508668800352</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.8312294654582405</v>
+        <v>-0.7710797354473119</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-4.264677225109402</v>
+        <v>-4.375758221069743</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.53536536180601</v>
+        <v>-4.56167811718786</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.239738914202853</v>
+        <v>-1.328118507277145</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.588065123376538</v>
+        <v>-1.617708328641636</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.293304701597839</v>
+        <v>-1.974582908953005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.484406517715688</v>
+        <v>3.002343125013229</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.132689286020295</v>
+        <v>-0.901423170295472</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.6988972413894274</v>
+        <v>-0.7484097167577691</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.371442296034658</v>
+        <v>2.468354133625624</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-1.7894145538125</v>
+        <v>-1.767796382157037</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.900599432465678</v>
+        <v>-1.916339303610653</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.635236480615575</v>
+        <v>1.718517388936157</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.4763329275628086</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1622371847331399</v>
+        <v>0.16223718473314</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.4626241921913648</v>
@@ -769,7 +769,7 @@
         <v>-0.4900082608085432</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.03539325523183493</v>
+        <v>0.03539325523183472</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5918369261129709</v>
+        <v>-0.5953152427497712</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6491488836510242</v>
+        <v>-0.6692319207309988</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3148075010148706</v>
+        <v>-0.258012208125085</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6855617312777957</v>
+        <v>-0.6700156364598867</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7013886463541092</v>
+        <v>-0.7120225144768904</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1542214455602821</v>
+        <v>-0.1425874997063065</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5899455121668941</v>
+        <v>-0.5998046326049179</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6285217969758857</v>
+        <v>-0.6248761715732096</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.171330959559191</v>
+        <v>-0.1788547008845085</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.197325554480849</v>
+        <v>-0.2099782376794439</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2625825019620938</v>
+        <v>-0.2497087483574574</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3054257118258391</v>
+        <v>0.3869139176750463</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2776219627234842</v>
+        <v>-0.2256450303229261</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1703984948018371</v>
+        <v>-0.1656855402429963</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6280394917567282</v>
+        <v>0.6557589529163624</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.3048744905288788</v>
+        <v>-0.3119907858387131</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.314670746561017</v>
+        <v>-0.3315350680905856</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2777896871990826</v>
+        <v>0.3089706543743199</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.7580511505865738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.6619157755579727</v>
+        <v>-0.6619157755579722</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-0.9693238744137543</v>
@@ -878,7 +878,7 @@
         <v>-0.7262370564897289</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-0.1092503896315239</v>
+        <v>-0.1092503896315235</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.887104612761789</v>
+        <v>-1.865701086296522</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.661330428537258</v>
+        <v>-1.650621257726437</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.499351602289265</v>
+        <v>-1.53859811017994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.763894098833227</v>
+        <v>-1.756251861706316</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.516471656910208</v>
+        <v>-1.470529366166317</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.3148573606212483</v>
+        <v>-0.4221780089787451</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.571276227387992</v>
+        <v>-1.500639193159361</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.338179774455057</v>
+        <v>-1.290892925619047</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.7305484358081181</v>
+        <v>-0.7010665740110567</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.09845673583341698</v>
+        <v>-0.03596698639597136</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06663070602613204</v>
+        <v>0.1370930908283248</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1534321649899963</v>
+        <v>0.1901341794123617</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.2971096366161224</v>
+        <v>-0.3037851918998025</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.005118365792362521</v>
+        <v>-0.01706756205777866</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.403702755260688</v>
+        <v>1.31113711420015</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.3691700194567998</v>
+        <v>-0.3262667806510822</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.1425903405461761</v>
+        <v>-0.1374215822121317</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.474523238535795</v>
+        <v>0.543495036907143</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3550047592430017</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.3099833703296601</v>
+        <v>-0.3099833703296599</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.6258537772176206</v>
@@ -983,7 +983,7 @@
         <v>-0.3922392418712946</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.0590059259855718</v>
+        <v>-0.05900592598557161</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7026365970565226</v>
+        <v>-0.7017690101933634</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6214816459843118</v>
+        <v>-0.6050941549592193</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.559964764214397</v>
+        <v>-0.5724491455382459</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8296537329941743</v>
+        <v>-0.8398261867128173</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7124629393953004</v>
+        <v>-0.7185046951985582</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1875578304736533</v>
+        <v>-0.2297903956717807</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7052492405606877</v>
+        <v>-0.6860601287198309</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5959679845030953</v>
+        <v>-0.5872222223159813</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3408707021859317</v>
+        <v>-0.3245145583193119</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.02842862873578195</v>
+        <v>0.06342785759353892</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.0787275951581993</v>
+        <v>0.0907398556358341</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1077232057486299</v>
+        <v>0.1338681568914047</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.1426551014434972</v>
+        <v>-0.1801836182458387</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1108403626243884</v>
+        <v>0.002594900677319966</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.263102552039064</v>
+        <v>1.112134181484317</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2333454410517226</v>
+        <v>-0.1887495003995374</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.09344768800361471</v>
+        <v>-0.08406163424982835</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3240799139231821</v>
+        <v>0.3642429165148778</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.6431623790058006</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.3693187263540265</v>
+        <v>-0.3693187263540266</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.9544042109730139</v>
@@ -1092,7 +1092,7 @@
         <v>-0.6331506978932394</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.2511438903614313</v>
+        <v>-0.2511438903614311</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.704770955785651</v>
+        <v>-2.79795665683598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.964128183159218</v>
+        <v>-2.105354323021639</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.647787382173356</v>
+        <v>-1.670365926657982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.232136361258072</v>
+        <v>-2.347171552215507</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.200903632702346</v>
+        <v>-1.949163596041571</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.568536418701632</v>
+        <v>-1.478162786101767</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.912846975236038</v>
+        <v>-2.114503217030797</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.5527289033915</v>
+        <v>-1.525638472209788</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.265930018869524</v>
+        <v>-1.188988172584712</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.574623145571667</v>
+        <v>-0.5434415513588906</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5404125266328329</v>
+        <v>0.582950881969284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6565361502695557</v>
+        <v>0.6773132018297683</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.002670723454028094</v>
+        <v>0.0003222141570542505</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3541559032186452</v>
+        <v>0.4305790390088451</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8537705406204547</v>
+        <v>0.9192457151095368</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.527088013110024</v>
+        <v>-0.5088610800964064</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2388667657334532</v>
+        <v>0.2291411138875809</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5052195755154844</v>
+        <v>0.5613454798870565</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.4900088112060642</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2813744024279164</v>
+        <v>-0.2813744024279165</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.820204679887622</v>
@@ -1197,7 +1197,7 @@
         <v>-0.5091606381440912</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2019623194097429</v>
+        <v>-0.2019623194097427</v>
       </c>
     </row>
     <row r="20">
@@ -1212,21 +1212,23 @@
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7548676891073823</v>
+        <v>-0.7377414798297038</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
-      <c r="G20" s="6" t="inlineStr"/>
+      <c r="G20" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7353532321412398</v>
+        <v>-0.7106048659385502</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.8466813750511761</v>
+        <v>-0.8395097738379541</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6609140090760242</v>
+        <v>-0.6089347176655935</v>
       </c>
     </row>
     <row r="21">
@@ -1238,24 +1240,26 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>1.25776443264153</v>
+        <v>1.60974007663404</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.097401729196732</v>
+        <v>1.381663758937513</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
-      <c r="G21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="n">
+        <v>1.823187694222523</v>
+      </c>
       <c r="H21" s="6" t="n">
-        <v>2.09174717089678</v>
+        <v>2.250495320702167</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.3139427945274332</v>
+        <v>-0.4492765596036761</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4209885961177874</v>
+        <v>0.482309871720314</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7026853193422569</v>
+        <v>0.9712863732970324</v>
       </c>
     </row>
     <row r="22">
@@ -1285,7 +1289,7 @@
         <v>-1.449192907478782</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-0.1338897393112378</v>
+        <v>-0.1338897393112375</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.752802714115228</v>
@@ -1294,7 +1298,7 @@
         <v>-1.812919729559454</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.8520803584246481</v>
+        <v>-0.8520803584246488</v>
       </c>
     </row>
     <row r="23">
@@ -1305,31 +1309,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.915173915443143</v>
+        <v>-2.939857726393688</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.956613667556937</v>
+        <v>-3.070185952847841</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.387767733724426</v>
+        <v>-2.515338099528286</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.170861580943926</v>
+        <v>-2.159457195738899</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.159020721806574</v>
+        <v>-2.106419986776652</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8776247246063998</v>
+        <v>-0.9460569169530978</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.322455460297562</v>
+        <v>-2.356639358242719</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.428272163344012</v>
+        <v>-2.367248492601929</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.394559964990162</v>
+        <v>-1.346971340998237</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1344,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.143964686390579</v>
+        <v>-1.171831286691806</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.353428499567307</v>
+        <v>-1.319092660757023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.7051168986540112</v>
+        <v>-0.8279701865439091</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.8641129449256357</v>
+        <v>-0.8217071949970545</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.7485183892015609</v>
+        <v>-0.7721830485023201</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6073071000861935</v>
+        <v>0.5566181881642404</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.255650697460651</v>
+        <v>-1.231658645598525</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.307548168684226</v>
+        <v>-1.337857078122014</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.3020593215817874</v>
+        <v>-0.269361287986145</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1385,7 @@
         <v>-0.5258707378084725</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3837310075155599</v>
+        <v>-0.3837310075155597</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.5583462241642196</v>
@@ -1390,7 +1394,7 @@
         <v>-0.5350019201632769</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.0494283868296682</v>
+        <v>-0.04942838682966808</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.5126787622934256</v>
@@ -1399,7 +1403,7 @@
         <v>-0.5302624394651478</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2492257114926907</v>
+        <v>-0.2492257114926909</v>
       </c>
     </row>
     <row r="26">
@@ -1410,31 +1414,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6318817987038888</v>
+        <v>-0.615798732069394</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6408057228665107</v>
+        <v>-0.6539977653920429</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5167587180193223</v>
+        <v>-0.5354318079420246</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6995267580775356</v>
+        <v>-0.6972332477075104</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.688360932247561</v>
+        <v>-0.682768754972397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2812190169178739</v>
+        <v>-0.2999733399383809</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.6093065570064624</v>
+        <v>-0.6233357190359169</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6306624698682443</v>
+        <v>-0.6223941619351513</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3751206964102302</v>
+        <v>-0.3620437048829067</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1449,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.3081641969817559</v>
+        <v>-0.3081314318158596</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3738463774813717</v>
+        <v>-0.3605594228291267</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1957103661786651</v>
+        <v>-0.2145201384094652</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.3774919427955398</v>
+        <v>-0.3619827397845991</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3183274748477812</v>
+        <v>-0.320266449581142</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2722378450749521</v>
+        <v>0.2430224188158009</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.3925848253418656</v>
+        <v>-0.3977566345318377</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4177481283183174</v>
+        <v>-0.4149359777328129</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.09932788965641227</v>
+        <v>-0.08433455898228009</v>
       </c>
     </row>
     <row r="28">
